--- a/biology/Histoire de la zoologie et de la botanique/Alexeï_Vvedenski/Alexeï_Vvedenski.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alexeï_Vvedenski/Alexeï_Vvedenski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexe%C3%AF_Vvedenski</t>
+          <t>Alexeï_Vvedenski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexeï Ivanovitch Vvedenski ( Алексей Иванович Введенский), ou Vvedensky (selon la transcription anglaise), né le 23 février 1898 à Penza et mort en 1972, est un botaniste soviétique renommé pour ses travaux concernant la flore d'Asie centrale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexe%C3%AF_Vvedenski</t>
+          <t>Alexeï_Vvedenski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Débuts de carrière
-Alexeï Vvedenski termine le lycée (Realgymnasium) de Penza en 1916 et commence à s'occuper de botanique en 1917 sous la direction d'Ivan Spryguine (1873-1942) et de Mikhaïl Popov (1893-1955) à la Société des amateurs de sciences naturelles de Penza. Il publie en 1918 à Penza un premier travail consacré à la flore locale[1]. En 1919-1920, il s'occupe de l'herbier du musée d'histoire naturelle de Penza, ainsi que du jardin zoobotanique de Penza, en tant que botaniste-systématicien. En 1920, Vvedenski et quatre collaborateurs partent pour Tachkent sous la direction de Spryguine et Popov, afin de travailler au jardin botanique de l'université d'État d'Asie centrale. Il participe alors à plusieurs expéditions scientifiques dans la région, y compris dans le massif du Mogoltaou en 1923-1924 avec le professeur Popov. Il part en 1927 recueillir des plantes donnant de l'huile essentielle et en 1929 dans l'okroug de Sourkhan-Daria pour étudier et recueillir des plantes ornementales. Il rassemble un herbier important de bulbes, de racines et de graines de plantes du Turkestan soviétique. Il collabore à partir de 1925 à l'herbier de l'université. C'est en 1929 qu'il termine ses études de botaniques à l'université d'Asie centrale. Sa thèse de troisième cycle porte sur les espèces d'Asie centrale de la famille Gagea.
+          <t>Débuts de carrière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexeï Vvedenski termine le lycée (Realgymnasium) de Penza en 1916 et commence à s'occuper de botanique en 1917 sous la direction d'Ivan Spryguine (1873-1942) et de Mikhaïl Popov (1893-1955) à la Société des amateurs de sciences naturelles de Penza. Il publie en 1918 à Penza un premier travail consacré à la flore locale. En 1919-1920, il s'occupe de l'herbier du musée d'histoire naturelle de Penza, ainsi que du jardin zoobotanique de Penza, en tant que botaniste-systématicien. En 1920, Vvedenski et quatre collaborateurs partent pour Tachkent sous la direction de Spryguine et Popov, afin de travailler au jardin botanique de l'université d'État d'Asie centrale. Il participe alors à plusieurs expéditions scientifiques dans la région, y compris dans le massif du Mogoltaou en 1923-1924 avec le professeur Popov. Il part en 1927 recueillir des plantes donnant de l'huile essentielle et en 1929 dans l'okroug de Sourkhan-Daria pour étudier et recueillir des plantes ornementales. Il rassemble un herbier important de bulbes, de racines et de graines de plantes du Turkestan soviétique. Il collabore à partir de 1925 à l'herbier de l'université. C'est en 1929 qu'il termine ses études de botaniques à l'université d'Asie centrale. Sa thèse de troisième cycle porte sur les espèces d'Asie centrale de la famille Gagea.
 Il rédige et publie en 1924, avec d'autres collaborateurs botanistes, un recueil intitulé Herbarium florae Asiae Mediae qui est remarqué par les experts contemporains. Il traite en effet de vingt-cinq mille espèces, en identifie de nouvelles et fait une recension critique.
-Travaux scientifiques
-Vvedenski se fait donc connaître comme expert de la flore d'Asie centrale dont il découvre, identifie et étudie de nouvelles espèces. Parmi les monographies qu'il publie, il s'intéresse en particulier aux familles des Liliaceae (surtout aux aulx et aux tulipes) et des Iridaceae (surtout aux iris). Il fait paraître ses articles dans La Flore d'URSS, La Flore de Turkménie et La Flore d'Ouzbékistan. Vvedenski rédige de manière exhaustive les articles concernant les tulipes dans le quatrième tome de La Flore d'URSS paru en 1935. Il décrit, classe et localise toutes les espèces de tulipes de l'immense territoire de l'URSS. Nonobstant du fait que les tulipes de ces pays et régions ont été étudiées en détail depuis longtemps, Vvedenski en propose une nouvelle classification dont les bases ont été conservées depuis lors grâce notamment aux travaux de la botaniste Zinaïda Botchantseva.
-Entre 1929 et 1934, Vvedenski se consacre à l'étude des espèces sauvages de plantes ornementales endémiques d'Asie centrale, en particulier des genres Allium, Tulipa, Eremurus, Iris. Il en introduit de nombreuses sortes en culture. Le professeur Fedtchenko publie un catalogue illustré des espèces sauvages de plantes ornementales d'URSS en 1935 à Moscou qui s'appuie en partie sur les travaux de Vvedenski qui collabore lui-même à l'ouvrage.
-Alexeï Vvedenski a pris une part active aux publications de l'université de Tachkent et de l'Académie des sciences d'Ouzbékistan (fondée en 1943) dont il devient membre-correspondant. C'est ainsi que grâce à lui est publiée en 1947 une monographie (qu'il édite et corrige) d'Evgueni Korovine concernant le genre Ferula.
 </t>
         </is>
       </c>
@@ -530,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexe%C3%AF_Vvedenski</t>
+          <t>Alexeï_Vvedenski</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +558,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Travaux scientifiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vvedenski se fait donc connaître comme expert de la flore d'Asie centrale dont il découvre, identifie et étudie de nouvelles espèces. Parmi les monographies qu'il publie, il s'intéresse en particulier aux familles des Liliaceae (surtout aux aulx et aux tulipes) et des Iridaceae (surtout aux iris). Il fait paraître ses articles dans La Flore d'URSS, La Flore de Turkménie et La Flore d'Ouzbékistan. Vvedenski rédige de manière exhaustive les articles concernant les tulipes dans le quatrième tome de La Flore d'URSS paru en 1935. Il décrit, classe et localise toutes les espèces de tulipes de l'immense territoire de l'URSS. Nonobstant du fait que les tulipes de ces pays et régions ont été étudiées en détail depuis longtemps, Vvedenski en propose une nouvelle classification dont les bases ont été conservées depuis lors grâce notamment aux travaux de la botaniste Zinaïda Botchantseva.
+Entre 1929 et 1934, Vvedenski se consacre à l'étude des espèces sauvages de plantes ornementales endémiques d'Asie centrale, en particulier des genres Allium, Tulipa, Eremurus, Iris. Il en introduit de nombreuses sortes en culture. Le professeur Fedtchenko publie un catalogue illustré des espèces sauvages de plantes ornementales d'URSS en 1935 à Moscou qui s'appuie en partie sur les travaux de Vvedenski qui collabore lui-même à l'ouvrage.
+Alexeï Vvedenski a pris une part active aux publications de l'université de Tachkent et de l'Académie des sciences d'Ouzbékistan (fondée en 1943) dont il devient membre-correspondant. C'est ainsi que grâce à lui est publiée en 1947 une monographie (qu'il édite et corrige) d'Evgueni Korovine concernant le genre Ferula.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alexeï_Vvedenski</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexe%C3%AF_Vvedenski</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Новый род из семейства губоцветных Phlomidopsis // Тр. Туркест. научн. об-ва. — Tachkent: 1923. — vol. I. — p. 119–122. [Une nouvelle espèce du genre Phlomidopsis] (en collaboration avec M.G. Popov)
 Новые виды туркестанских луков // Тр. Туркест. научн. об-ва. — Tachkent: 1923. — vol. I. — p. 122–126. [Nouvelles espèces d'oignons du Turkestan]
@@ -573,31 +627,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alexe%C3%AF_Vvedenski</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alexeï_Vvedenski</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alexe%C3%AF_Vvedenski</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Espèces dénommées d'après Vvedenski</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(Apiaceae) Scaligeria vvedenskyi Kamelin
 (Asparagaceae) Asparagus vvedenskyi Botsch.
